--- a/Param/Projet_contraintes.xlsx
+++ b/Param/Projet_contraintes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julem\Dropbox\EPL\Master_1\Q1\LELME2150 Thermal Cycles\2024\Projet\Param\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB41022-6CCE-4FC2-8A70-091A81861F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946C17EF-FF05-408A-AA44-3EEEF5274CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{CB6374FC-8A30-4020-B8B5-DB38D12B49A4}"/>
+    <workbookView xWindow="11715" yWindow="615" windowWidth="21600" windowHeight="11385" xr2:uid="{CB6374FC-8A30-4020-B8B5-DB38D12B49A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>T_max</t>
   </si>
@@ -131,9 +131,6 @@
     <t>consigne</t>
   </si>
   <si>
-    <t>T_hot_fluid_in</t>
-  </si>
-  <si>
     <t>Vérifier les espaces dans les Name</t>
   </si>
   <si>
@@ -141,6 +138,18 @@
   </si>
   <si>
     <t>hot_fluid</t>
+  </si>
+  <si>
+    <t>T_pinch_evap_I</t>
+  </si>
+  <si>
+    <t>diofférence T entre sortie de l'evaporateur I et etat 1</t>
+  </si>
+  <si>
+    <t>T_hot_fluid_in_II</t>
+  </si>
+  <si>
+    <t>p_hot_fluid</t>
   </si>
 </sst>
 </file>
@@ -577,7 +586,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -621,26 +630,32 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>0.85</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0.85</v>
@@ -654,93 +669,90 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>0.85</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>31000000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>31000000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="D9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2083</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>35</v>
-      </c>
       <c r="D11" s="2" t="b">
         <v>0</v>
       </c>
@@ -750,175 +762,187 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2083</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <f>273.15+10</f>
         <v>283.14999999999998</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <f>273.15+20</f>
         <v>293.14999999999998</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
+      <c r="D15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
         <f>140+273.15</f>
         <v>413.15</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>288.14999999999998</v>
-      </c>
-      <c r="D15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <f>140+273.15</f>
         <v>413.15</v>
       </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
+      <c r="B18">
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>288.14999999999998</v>
+      </c>
       <c r="D19" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>1000000</v>
+      </c>
       <c r="D20" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="b">
         <v>0</v>
       </c>
